--- a/出库/床垫的出库(更新4.18).xlsx
+++ b/出库/床垫的出库(更新4.18).xlsx
@@ -794,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomLeft" activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="N100" s="14"/>
       <c r="O100" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P100" s="14"/>
     </row>
